--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="658">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -510,7 +510,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -534,7 +534,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -577,7 +577,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -653,7 +653,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo|5.3.0-ballot-tc1}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|5.2.0}
 </t>
   </si>
   <si>
@@ -661,10 +661,6 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -718,7 +714,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -747,7 +743,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -827,7 +823,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -1082,7 +1078,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1207,7 +1203,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1566,7 +1562,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1598,7 +1594,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1654,7 +1650,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1687,7 +1683,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1699,7 +1695,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1727,7 +1723,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1807,7 +1803,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1857,7 +1853,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1890,7 +1886,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1927,7 +1923,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1949,7 +1945,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2432,7 +2428,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.9921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4708,7 +4704,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>123</v>
@@ -4734,10 +4730,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4763,16 +4759,16 @@
         <v>115</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4821,7 +4817,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4856,10 +4852,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4882,17 +4878,17 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4941,7 +4937,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4956,19 +4952,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4976,14 +4972,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -5002,17 +4998,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -5061,7 +5057,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5076,16 +5072,16 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5096,14 +5092,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5122,16 +5118,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5181,7 +5177,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5196,30 +5192,30 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5245,16 +5241,16 @@
         <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5279,11 +5275,11 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5301,7 +5297,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>94</v>
@@ -5316,19 +5312,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -5336,10 +5332,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5362,19 +5358,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5402,16 +5398,16 @@
         <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
@@ -5421,7 +5417,7 @@
         <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5445,24 +5441,24 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
+      <c r="B26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
@@ -5484,19 +5480,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5524,11 +5520,11 @@
         <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
       </c>
@@ -5545,7 +5541,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5569,10 +5565,10 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5580,10 +5576,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5698,10 +5694,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5816,12 +5812,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5847,16 +5843,16 @@
         <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5905,7 +5901,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5926,10 +5922,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5940,10 +5936,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6058,10 +6054,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6176,12 +6172,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6207,65 +6203,65 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6286,10 +6282,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6300,10 +6296,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6329,13 +6325,13 @@
         <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6385,7 +6381,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6406,24 +6402,24 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AO33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
+      <c r="B34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6449,63 +6445,63 @@
         <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6526,10 +6522,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6540,10 +6536,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6569,14 +6565,14 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6625,7 +6621,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6646,10 +6642,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6660,10 +6656,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6686,19 +6682,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6747,7 +6743,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6768,10 +6764,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6782,10 +6778,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6811,16 +6807,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6869,7 +6865,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6890,28 +6886,28 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AO37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6930,19 +6926,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6970,11 +6966,11 @@
         <v>156</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6991,7 +6987,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>94</v>
@@ -7006,30 +7002,30 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AO38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7144,10 +7140,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7264,10 +7260,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7293,16 +7289,16 @@
         <v>152</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7339,7 +7335,7 @@
         <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -7349,7 +7345,7 @@
         <v>121</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7370,10 +7366,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7384,13 +7380,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>83</v>
@@ -7415,16 +7411,16 @@
         <v>152</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7473,7 +7469,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7494,10 +7490,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7508,10 +7504,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7626,10 +7622,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7746,10 +7742,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7775,23 +7771,23 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>83</v>
@@ -7833,7 +7829,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7854,10 +7850,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7868,10 +7864,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7897,13 +7893,13 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7953,7 +7949,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7974,10 +7970,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7988,10 +7984,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8017,21 +8013,21 @@
         <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>83</v>
@@ -8073,7 +8069,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8094,10 +8090,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8108,10 +8104,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8137,14 +8133,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8193,7 +8189,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8214,10 +8210,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8228,10 +8224,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8254,19 +8250,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8315,7 +8311,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8336,10 +8332,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8350,10 +8346,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8379,16 +8375,16 @@
         <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8437,7 +8433,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8458,11 +8454,11 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8470,12 +8466,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8498,19 +8494,19 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8559,7 +8555,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8574,19 +8570,19 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8594,10 +8590,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8620,16 +8616,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8679,7 +8675,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8700,13 +8696,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8714,14 +8710,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8740,19 +8736,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8801,7 +8797,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8816,34 +8812,34 @@
         <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AO53" t="s" s="2">
+      <c r="AP53" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AP53" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8862,19 +8858,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8923,7 +8919,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8932,25 +8928,25 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8958,10 +8954,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8987,13 +8983,13 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9043,7 +9039,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9064,13 +9060,13 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9078,10 +9074,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9104,17 +9100,17 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9163,7 +9159,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9178,19 +9174,19 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9198,10 +9194,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9224,19 +9220,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9273,17 +9269,17 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9292,7 +9288,7 @@
         <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>106</v>
@@ -9301,30 +9297,30 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP57" t="s" s="2">
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
         <v>440</v>
       </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
+      <c r="B58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>83</v>
@@ -9346,19 +9342,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9407,7 +9403,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9416,7 +9412,7 @@
         <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9425,27 +9421,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>440</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9560,10 +9556,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9678,12 +9674,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9706,19 +9702,19 @@
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9767,7 +9763,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9788,10 +9784,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9802,10 +9798,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9831,65 +9827,65 @@
         <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q62" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="P62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q62" t="s" s="2">
+      <c r="R62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="R62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z62" t="s" s="2">
+      <c r="AA62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9910,24 +9906,24 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
+      <c r="B63" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9953,14 +9949,14 @@
         <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10009,7 +10005,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10030,24 +10026,24 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AO63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
+      <c r="B64" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10073,63 +10069,63 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10138,7 +10134,7 @@
         <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10150,24 +10146,24 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
+      <c r="B65" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10193,65 +10189,65 @@
         <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10272,24 +10268,24 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AO65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10312,19 +10308,19 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10352,11 +10348,11 @@
         <v>156</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10373,7 +10369,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10382,7 +10378,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10397,7 +10393,7 @@
         <v>197</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10408,14 +10404,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10434,19 +10430,19 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10474,11 +10470,11 @@
         <v>156</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
       </c>
@@ -10495,7 +10491,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10513,27 +10509,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP67" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10556,19 +10552,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10617,7 +10613,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10638,10 +10634,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10652,10 +10648,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10678,16 +10674,16 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10716,11 +10712,11 @@
         <v>164</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10737,7 +10733,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10755,27 +10751,27 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AO69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>531</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10798,19 +10794,19 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10838,11 +10834,11 @@
         <v>164</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>538</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10859,7 +10855,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10880,10 +10876,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10894,10 +10890,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10920,16 +10916,16 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10979,7 +10975,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10997,27 +10993,27 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP71" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11040,16 +11036,16 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11099,7 +11095,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11117,27 +11113,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11160,19 +11156,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11221,7 +11217,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11233,19 +11229,19 @@
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11256,10 +11252,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11374,10 +11370,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11494,14 +11490,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11523,16 +11519,16 @@
         <v>115</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11581,7 +11577,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11616,10 +11612,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11642,13 +11638,13 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11699,7 +11695,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11708,7 +11704,7 @@
         <v>94</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>106</v>
@@ -11720,10 +11716,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11734,10 +11730,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11760,13 +11756,13 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11817,7 +11813,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11826,7 +11822,7 @@
         <v>94</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>106</v>
@@ -11838,10 +11834,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11852,10 +11848,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11878,19 +11874,19 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11918,11 +11914,11 @@
         <v>178</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11939,7 +11935,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11957,13 +11953,13 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AM79" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="AN79" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11974,10 +11970,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12000,19 +11996,19 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12040,11 +12036,11 @@
         <v>164</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
       </c>
@@ -12061,7 +12057,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12079,13 +12075,13 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AM80" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12096,10 +12092,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12122,17 +12118,17 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12181,7 +12177,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12205,7 +12201,7 @@
         <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12216,10 +12212,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12245,10 +12241,10 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12299,7 +12295,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12320,10 +12316,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12334,10 +12330,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12360,16 +12356,16 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12419,7 +12415,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12440,10 +12436,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12454,10 +12450,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12480,16 +12476,16 @@
         <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12539,7 +12535,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12560,24 +12556,24 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AN84" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AO84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="B85" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12600,19 +12596,19 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12661,7 +12657,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12673,19 +12669,19 @@
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="AK85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12696,10 +12692,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12814,10 +12810,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12934,14 +12930,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12963,16 +12959,16 @@
         <v>115</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -13021,7 +13017,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13054,12 +13050,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13082,19 +13078,19 @@
         <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13122,11 +13118,11 @@
         <v>156</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
       </c>
@@ -13143,7 +13139,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>94</v>
@@ -13161,27 +13157,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="AM89" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AP89" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>641</v>
-      </c>
       <c r="B90" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13204,19 +13200,19 @@
         <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>645</v>
-      </c>
       <c r="O90" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13244,11 +13240,11 @@
         <v>156</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
       </c>
@@ -13265,7 +13261,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13274,7 +13270,7 @@
         <v>94</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>106</v>
@@ -13283,27 +13279,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="AM90" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="B91" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13326,19 +13322,19 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>653</v>
-      </c>
       <c r="O91" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13366,11 +13362,11 @@
         <v>156</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
       </c>
@@ -13387,7 +13383,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13396,7 +13392,7 @@
         <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13411,7 +13407,7 @@
         <v>197</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13422,14 +13418,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13448,19 +13444,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13488,11 +13484,11 @@
         <v>156</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
       </c>
@@ -13509,7 +13505,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13527,27 +13523,27 @@
         <v>83</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13573,16 +13569,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="N93" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O93" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13631,7 +13627,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13652,10 +13648,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13666,12 +13662,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP93">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="659">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/bmi</t>
+    <t>http://hl7.org/fhir/StructureDefinition/bmi|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,6 +488,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-bmi|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Observation.meta.security</t>
   </si>
   <si>
@@ -1172,7 +1175,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1226,7 +1229,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1321,7 +1324,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1|RelatedPerson|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -2413,7 +2416,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.41796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3700,7 +3703,7 @@
         <v>83</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>83</v>
@@ -3774,10 +3777,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3800,16 +3803,16 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3835,13 +3838,13 @@
         <v>83</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>83</v>
@@ -3859,7 +3862,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3894,10 +3897,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3920,16 +3923,16 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3955,13 +3958,13 @@
         <v>83</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>83</v>
@@ -3979,7 +3982,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -4014,10 +4017,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4043,13 +4046,13 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4099,7 +4102,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -4134,10 +4137,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4160,16 +4163,16 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4195,13 +4198,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -4219,7 +4222,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -4254,14 +4257,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4280,16 +4283,16 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4339,7 +4342,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4363,7 +4366,7 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>83</v>
@@ -4374,14 +4377,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4400,16 +4403,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4459,7 +4462,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4483,7 +4486,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4494,10 +4497,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4523,10 +4526,10 @@
         <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4575,7 +4578,7 @@
         <v>121</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4610,13 +4613,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>83</v>
@@ -4638,13 +4641,13 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4695,7 +4698,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4730,10 +4733,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4759,16 +4762,16 @@
         <v>115</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4817,7 +4820,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4841,7 +4844,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4852,10 +4855,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4878,17 +4881,17 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4937,7 +4940,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4952,19 +4955,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4972,14 +4975,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4998,17 +5001,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -5057,7 +5060,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5072,16 +5075,16 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -5092,14 +5095,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5118,16 +5121,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5177,7 +5180,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5192,16 +5195,16 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -5212,10 +5215,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5238,19 +5241,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -5275,11 +5278,11 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -5297,7 +5300,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>94</v>
@@ -5312,19 +5315,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -5332,10 +5335,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5358,19 +5361,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -5395,19 +5398,19 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
@@ -5417,7 +5420,7 @@
         <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5441,10 +5444,10 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5452,13 +5455,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>83</v>
@@ -5480,19 +5483,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5517,13 +5520,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5541,7 +5544,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5565,10 +5568,10 @@
         <v>83</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5576,10 +5579,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5694,10 +5697,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5814,10 +5817,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5840,19 +5843,19 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5901,7 +5904,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5922,10 +5925,10 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5936,10 +5939,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6054,10 +6057,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6174,10 +6177,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6203,23 +6206,23 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>83</v>
@@ -6261,7 +6264,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6282,10 +6285,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6296,10 +6299,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6325,13 +6328,13 @@
         <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6381,7 +6384,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6402,10 +6405,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6416,10 +6419,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6442,24 +6445,24 @@
         <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6501,7 +6504,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6522,10 +6525,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6536,10 +6539,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6565,14 +6568,14 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6621,7 +6624,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6642,10 +6645,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6656,10 +6659,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6682,19 +6685,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6743,7 +6746,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6764,10 +6767,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6778,10 +6781,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6807,16 +6810,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6865,7 +6868,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6886,10 +6889,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6900,14 +6903,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6926,19 +6929,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6963,13 +6966,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6987,7 +6990,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>94</v>
@@ -7002,30 +7005,30 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7140,10 +7143,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7260,10 +7263,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7286,19 +7289,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7335,7 +7338,7 @@
         <v>83</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
@@ -7345,7 +7348,7 @@
         <v>121</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7366,10 +7369,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7380,13 +7383,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>83</v>
@@ -7408,19 +7411,19 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7469,7 +7472,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7490,10 +7493,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7504,10 +7507,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7622,10 +7625,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7742,10 +7745,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7771,23 +7774,23 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>83</v>
@@ -7829,7 +7832,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7850,10 +7853,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7864,10 +7867,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7893,13 +7896,13 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7949,7 +7952,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7970,10 +7973,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7984,10 +7987,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8010,24 +8013,24 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>83</v>
@@ -8069,7 +8072,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8090,10 +8093,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -8104,10 +8107,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8133,14 +8136,14 @@
         <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8189,7 +8192,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8210,10 +8213,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -8224,10 +8227,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8250,19 +8253,19 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8311,7 +8314,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8332,10 +8335,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8346,10 +8349,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8375,16 +8378,16 @@
         <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8433,7 +8436,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8454,10 +8457,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8468,10 +8471,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8494,19 +8497,19 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8555,7 +8558,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8570,19 +8573,19 @@
         <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8590,10 +8593,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8616,16 +8619,16 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8675,7 +8678,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8696,13 +8699,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8710,14 +8713,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8736,19 +8739,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8797,7 +8800,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8812,19 +8815,19 @@
         <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8832,14 +8835,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8858,19 +8861,19 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8919,7 +8922,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8928,25 +8931,25 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8954,10 +8957,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8983,13 +8986,13 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9039,7 +9042,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9060,13 +9063,13 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9074,10 +9077,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9100,17 +9103,17 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9159,7 +9162,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9174,19 +9177,19 @@
         <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9194,10 +9197,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9220,19 +9223,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -9269,17 +9272,17 @@
         <v>83</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9288,7 +9291,7 @@
         <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>106</v>
@@ -9297,30 +9300,30 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>83</v>
@@ -9342,19 +9345,19 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9403,7 +9406,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9412,7 +9415,7 @@
         <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9421,27 +9424,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9556,10 +9559,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9676,10 +9679,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9702,19 +9705,19 @@
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9763,7 +9766,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9784,10 +9787,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9798,10 +9801,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9824,23 +9827,23 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>83</v>
@@ -9861,13 +9864,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9885,7 +9888,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9906,10 +9909,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9920,10 +9923,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9949,14 +9952,14 @@
         <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -10005,7 +10008,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10026,10 +10029,10 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -10040,10 +10043,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10069,21 +10072,21 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>83</v>
@@ -10125,7 +10128,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10134,7 +10137,7 @@
         <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10146,10 +10149,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10160,10 +10163,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10186,26 +10189,26 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>83</v>
@@ -10247,7 +10250,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10268,10 +10271,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10282,10 +10285,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10308,19 +10311,19 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10345,13 +10348,13 @@
         <v>83</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10369,7 +10372,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10378,7 +10381,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10390,10 +10393,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10404,14 +10407,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10430,19 +10433,19 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10467,13 +10470,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10491,7 +10494,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10509,27 +10512,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10552,19 +10555,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10613,7 +10616,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10634,10 +10637,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10648,10 +10651,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10674,16 +10677,16 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10709,13 +10712,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10733,7 +10736,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10751,27 +10754,27 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10794,19 +10797,19 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>83</v>
@@ -10831,13 +10834,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10855,7 +10858,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10876,10 +10879,10 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10890,10 +10893,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10916,16 +10919,16 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10975,7 +10978,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10993,27 +10996,27 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11036,16 +11039,16 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11095,7 +11098,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11113,27 +11116,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11156,19 +11159,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11217,7 +11220,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11229,7 +11232,7 @@
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -11238,10 +11241,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11252,10 +11255,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11370,10 +11373,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11490,14 +11493,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11519,16 +11522,16 @@
         <v>115</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11577,7 +11580,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11601,7 +11604,7 @@
         <v>83</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11612,10 +11615,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11638,13 +11641,13 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11695,7 +11698,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11704,7 +11707,7 @@
         <v>94</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>106</v>
@@ -11716,10 +11719,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11730,10 +11733,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11756,13 +11759,13 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11813,7 +11816,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11822,7 +11825,7 @@
         <v>94</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>106</v>
@@ -11834,10 +11837,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11848,10 +11851,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11874,19 +11877,19 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -11911,13 +11914,13 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11935,7 +11938,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11953,13 +11956,13 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>83</v>
@@ -11970,10 +11973,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11996,19 +11999,19 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12033,13 +12036,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -12057,7 +12060,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12075,13 +12078,13 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
@@ -12092,10 +12095,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12118,17 +12121,17 @@
         <v>83</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12177,7 +12180,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12201,7 +12204,7 @@
         <v>83</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12212,10 +12215,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12241,10 +12244,10 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12295,7 +12298,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12316,10 +12319,10 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
@@ -12330,10 +12333,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12356,16 +12359,16 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12415,7 +12418,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12436,10 +12439,10 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
@@ -12450,10 +12453,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12476,16 +12479,16 @@
         <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12535,7 +12538,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12556,10 +12559,10 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>83</v>
@@ -12570,10 +12573,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12596,19 +12599,19 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12657,7 +12660,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12669,7 +12672,7 @@
         <v>83</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>83</v>
@@ -12678,10 +12681,10 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12692,10 +12695,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12810,10 +12813,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12930,14 +12933,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12959,16 +12962,16 @@
         <v>115</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -13017,7 +13020,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13041,7 +13044,7 @@
         <v>83</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -13052,10 +13055,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13078,19 +13081,19 @@
         <v>95</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13115,13 +13118,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13139,7 +13142,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>94</v>
@@ -13157,16 +13160,16 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>83</v>
@@ -13174,10 +13177,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13200,19 +13203,19 @@
         <v>95</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13237,13 +13240,13 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13261,7 +13264,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13270,7 +13273,7 @@
         <v>94</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>106</v>
@@ -13279,27 +13282,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13322,19 +13325,19 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>83</v>
@@ -13359,13 +13362,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13383,7 +13386,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13392,7 +13395,7 @@
         <v>94</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>106</v>
@@ -13404,10 +13407,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13418,14 +13421,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13444,19 +13447,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13481,13 +13484,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13505,7 +13508,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13523,27 +13526,27 @@
         <v>83</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13569,16 +13572,16 @@
         <v>84</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>83</v>
@@ -13627,7 +13630,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13648,10 +13651,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -488,7 +488,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-bmi|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-observation-bmi|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Observation.meta.security</t>
@@ -1175,7 +1175,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -1229,7 +1229,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-encounter|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|4.0.1|RelatedPerson|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1|RelatedPerson|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot-2|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -2416,7 +2416,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="233.41796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="238.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
+++ b/main/ig/StructureDefinition-fr-core-observation-bmi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
